--- a/Fitbit_nokia_persona_outcome.xlsx
+++ b/Fitbit_nokia_persona_outcome.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7260"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
   <si>
     <t>Monitoring Calorie Expenditure</t>
   </si>
@@ -58,9 +60,6 @@
     <t>Exercise Types (offline videos)</t>
   </si>
   <si>
-    <t>Samsun Health</t>
-  </si>
-  <si>
     <t>Google Fit</t>
   </si>
   <si>
@@ -110,13 +109,88 @@
   </si>
   <si>
     <t>too less no warning</t>
+  </si>
+  <si>
+    <t>Components Not existing in market</t>
+  </si>
+  <si>
+    <t>No cardio exercise monitoring help</t>
+  </si>
+  <si>
+    <t>motivational messages</t>
+  </si>
+  <si>
+    <t>Notification on nearby events</t>
+  </si>
+  <si>
+    <t>Exercise types(offline video)</t>
+  </si>
+  <si>
+    <t>Samsung Health</t>
+  </si>
+  <si>
+    <t>Automated intake calorie calculation</t>
+  </si>
+  <si>
+    <t>New Requirements</t>
+  </si>
+  <si>
+    <t>Pain points</t>
+  </si>
+  <si>
+    <t>Existing Features</t>
+  </si>
+  <si>
+    <t>Device Design</t>
+  </si>
+  <si>
+    <t>Harendar</t>
+  </si>
+  <si>
+    <t>Monitoring Calorie</t>
+  </si>
+  <si>
+    <t>selvaraj</t>
+  </si>
+  <si>
+    <t>Gautam</t>
+  </si>
+  <si>
+    <t>Reward Points</t>
+  </si>
+  <si>
+    <t>Neha</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>Water intake calculations</t>
+  </si>
+  <si>
+    <t>Sridhar</t>
+  </si>
+  <si>
+    <t>Venilla</t>
+  </si>
+  <si>
+    <t>Rakesh</t>
+  </si>
+  <si>
+    <t>Subod</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Nithyanand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,13 +205,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -152,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -161,6 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,11 +555,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,22 +575,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -510,19 +598,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -530,13 +618,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -544,13 +632,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -558,22 +646,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -581,30 +669,30 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -612,13 +700,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -626,13 +714,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -640,13 +728,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -654,13 +742,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -668,13 +756,13 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -682,13 +770,13 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -696,16 +784,16 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -713,13 +801,13 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -727,17 +815,239 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>